--- a/data/trans_camb/P13A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P13A_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-53,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-26,94</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-40,51</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-35,61</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-84,12</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-82,6</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-75,01</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-37,71</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-47,41</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-50,47</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-44,58</t>
+          <t>0,62</t>
         </is>
       </c>
     </row>
@@ -729,57 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-88,55; 51,67</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 21,68</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-89,03; 26,23</t>
+          <t>-2,59; 0,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 1,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 1,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 0,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 1,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 63,05</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-89,0; 23,53</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-89,38; 19,76</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-83,51; 23,45</t>
+          <t>-0,61; 1,45</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-49,93%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-75,06%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-65,98%</t>
+          <t>-27,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-84,12%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-82,6%</t>
+          <t>-24,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-75,01%</t>
+          <t>115,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-56,73%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-71,32%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-75,91%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-67,06%</t>
+          <t>177,46%</t>
         </is>
       </c>
     </row>
@@ -903,21 +834,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-91,97; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-90,7; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-84,01; —</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-36,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-32,01</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-34,89</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-20,43</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-44,24</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-37,62</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-26,35</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-35,05</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-41,81</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-35,99</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-32,27</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-29,03</t>
+          <t>0,73</t>
         </is>
       </c>
     </row>
@@ -1005,57 +906,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 9,8</t>
+          <t>0,0; 0,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-98,45; 3,26</t>
+          <t>0,0; 0,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-85,96; 20,57</t>
+          <t>-1,46; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-85,85; -11,46</t>
+          <t>-0,71; 0,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,83; -3,18</t>
+          <t>0,42; 2,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-67,18; 11,3</t>
+          <t>-0,78; 0,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-78,42; -0,24</t>
+          <t>-0,29; 0,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-77,25; -10,84</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-69,56; -4,08</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-69,68; -3,83</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-64,49; -1,14</t>
+          <t>0,2; 1,35</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-87,74%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-95,62%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-55,99%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>20,12%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>514,92%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-85,03%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-59,55%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-79,23%</t>
+          <t>64,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-86,08%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-77,17%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-69,43%</t>
+          <t>518,92%</t>
         </is>
       </c>
     </row>
@@ -1161,37 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-83,9; 85,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-92,84; 4,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-97,88; -0,38</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-91,02; -29,49</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-86,13; 14,81</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-15,32</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-10,24</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-27,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,09</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-4,23</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-6,05</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-6,1</t>
+          <t>0,82</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-64,83; 62,45</t>
+          <t>-1,12; 1,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-82,77; 28,72</t>
+          <t>-1,55; 0,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-81,81; 29,2</t>
+          <t>-0,22; 2,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-95,01; 9,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,48</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,49</t>
+          <t>-0,5; 0,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,9; 33,95</t>
+          <t>-0,33; 0,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-36,54; 56,0</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-51,9; 16,84</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-53,03; 12,99</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-47,7; 12,59</t>
+          <t>0,11; 1,63</t>
         </is>
       </c>
     </row>
@@ -1344,27 +1170,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>49,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-46,61%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-31,15%</t>
+          <t>294,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-82,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1374,32 +1200,17 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>56,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>141,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>74,69%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-26,11%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-37,38%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-37,65%</t>
+          <t>401,31%</t>
         </is>
       </c>
     </row>
@@ -1455,26 +1266,11 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-13,51</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-26,23</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-30,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-25,86</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-24,73</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-26,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-24,48</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-21,37</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-18,26</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-26,65</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-26,89</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-23,38</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-56,99; 38,97</t>
+          <t>-0,81; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-62,02; 7,34</t>
+          <t>-0,35; 1,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-67,6; -0,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-64,58; 3,14</t>
+          <t>-0,67; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-63,46; 12,23</t>
+          <t>-0,33; 1,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-63,6; 1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-57,83; 2,27</t>
+          <t>-0,53; -0,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-53,23; 6,55</t>
+          <t>-0,27; 0,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-47,99; 12,06</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-51,17; -5,99</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-50,67; -5,23</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-47,65; -1,92</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-33,93%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-65,89%</t>
+          <t>29,1%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-75,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-64,96%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-68,62%</t>
+          <t>63,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-73,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-67,93%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-59,32%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-48,47%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-70,72%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-71,36%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-62,04%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1693,17 +1444,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-91,07; 51,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-90,61; -3,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-85,77; 23,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1713,49 +1464,258 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-92,44; 43,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-86,16; 26,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-81,04; 82,24</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 71,21</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-86,91; -26,89</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-84,9; -31,8</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-79,41; -12,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 0,23</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 0,54</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 1,14</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 0,01</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 0,65</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 1,55</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 0,06</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 0,51</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 1,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-30,82%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>81,58%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>277,0%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-75,24%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>97,89%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>397,77%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-54,85%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>90,34%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>341,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-62,52; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-6,11; 1649,03</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-64,54; 773,96</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>53,71; 1553,88</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 101,56</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-28,63; 476,67</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>83,94; 972,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
